--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/46_Kastamonu_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/46_Kastamonu_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F0E96A-1CE6-43B2-BD87-AB84EC508AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67ED28A3-7BCE-43C1-A6FD-663DCAC4B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{051D2769-1FE5-4834-B497-D72FFE0D65FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3DC83B2-65D0-4B45-8562-1F2A18176E38}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{5E091A8E-882F-4C09-9274-5C5F7D1FA2C4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{235D60BE-1605-4DA3-9166-F447BF0A5E85}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{6AF20DA7-51A9-4E88-8DC9-5C6299660F1B}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{D3252871-180C-4072-9370-A249C820D196}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{3BBBFE89-C681-40CA-BCB4-90F3B612A021}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{8256DF15-7A8F-44FC-AB3D-40942E7D4B24}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{2E5E04E4-B453-43E6-A991-0C27C6C3FD86}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{359D8F61-096F-4A41-ADFD-DE8E9536A0F9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27998C2F-66FE-4BD1-A73F-98E95F7EDC04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DC11D6-8109-4FBD-9871-250329E20F37}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2433,18 +2433,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{092967C1-7759-451D-B57F-FFC28B51330C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{89288B67-AEAD-4592-B76A-B7BAD1138E6C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C3F28636-6568-4B60-87EF-4972E4E6E8A0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1A342AF5-0ECA-4144-876A-3366A99C9ED8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6F9D04FD-F78F-4141-B16B-C93789AD99D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1E05161C-87E2-4E4C-BCC2-CA7FAD9C4504}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FC8B46AC-EC78-45EF-9D79-879D3DB1E0A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{90BE3EA8-F4E3-46BA-93B9-A060C9C12088}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{85CAF3F0-29FE-4BB5-8425-176B45BB8BCD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{11BC20B4-8AFA-4215-95DC-1D52716E963A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4CD6B3EB-F6AD-4D17-8469-CE1D32FE9070}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{253EE6BB-B44B-4CFF-89A2-19787C198A2B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{61F8BF42-3B4E-4993-AFAF-7B6B50121D22}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EAC46362-8084-4D35-ABDA-1C03AC47BBBB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CF647413-A839-44B3-B503-2669636ED6A7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E75374CE-F1BE-434B-94CC-FE90140DC17D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{34541D83-8F1D-4C30-BAFA-593DC4818170}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{65F33F12-786C-4659-878C-9DF2BA8A662C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BA8DAE04-615A-4221-B317-B2F183D3C355}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{08E68C77-9ABA-4394-91BA-A19BF9036809}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1214EDCC-7761-4ED9-9736-3FA17FD39BA6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BABF6813-43DD-4D2D-8371-A75E2ABF9D13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6B962244-FBC7-4624-91E9-88E61E4C0CCD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{30E983AA-4EDC-4A79-A050-01C37B4296E9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2457,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17918411-D707-4048-AE1D-F6003A1A204E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1998370A-4908-4548-BC76-6A6444BBDC1E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3636,18 +3636,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CCEA3600-847A-47D6-81FF-4F69E929420F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5E44699A-9402-447A-AB82-239627CEAD3C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{19318E1E-608E-4238-9FDD-DDBF44684AC2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8E3F32C7-59C1-42D7-8A89-CE0E98337958}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{055ACF8F-19D7-4A71-9DD6-3A091679695A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E1DBAAEA-0743-483C-BA66-B1069F8F384E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3F727AC1-21B3-41B2-96A6-8D105C1CC4D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E84B4410-09E0-4870-AE9A-748FDFAB0A03}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4C4E8EF2-0FA7-43FF-A98E-D79D2D7370D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3BB881CF-350B-4068-A767-8F662F5B752D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EFE01A40-25BF-49E3-9283-D60E61409962}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{69CABBB0-884A-4A41-80F4-DA3AF5F450A1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9CEF1AE2-3818-452D-B125-576A6A802AEA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B8FEDF37-507A-4F91-98C4-796B37373245}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{11F37FA3-732B-4D9B-8447-9DB09CA9C24D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{43C8EEAF-B165-4579-A7C5-325D3F69B8A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7EFC54BD-5AEC-48D6-A8D6-3395EC87AED2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BBA119AD-AE5A-4192-82B1-781575512EE9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{39C9E1AA-78A5-4AD0-814D-BCF6A897450C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DAF4B494-0408-4FC8-BC69-E3F696F8B5A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7F80C453-8895-4D38-B81F-00A951F2C3BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{636302F2-B516-43BF-9FF2-8614759AAC2C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8C128BA7-B4A6-4D68-800E-ACCE439478BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{126815F6-749E-4564-8071-32F0CDEEC818}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3660,7 +3660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDA3678-EC06-4ECF-98C3-CBD67A5303CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C19F6FC-FCC2-4C80-9BEA-18950FF1867F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4837,18 +4837,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8B6FD177-4693-4B78-B2D5-BE9FE35600E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{699F19BA-3E8E-4C9F-A9EE-A7734424FFA6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{84098EBD-2A4A-450F-949B-02866AF1FCA6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3B1DD591-4427-4748-9FA2-B6BB42B9FEF8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0CDA8B59-BC0E-411F-AC19-50B5B54A0C33}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{45530385-C166-4218-B5AB-126D81AEE74E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{53B137F1-B11D-44E2-9767-6A1F9FA33776}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9C3E7A18-13C0-4A16-9C40-DA7F933CF8BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C2B8EE7F-5C9A-4C2D-AD56-577AA580C71E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{35A8115E-65C8-4D47-BCA1-FA499A8AD43E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5ABEEA59-D5F3-465D-9FEC-4C21E36285FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7D4F2D6A-F2C6-471C-9871-3762DB703F4A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BA134F45-3349-4549-86A8-C38CCCA65C99}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1106FCC9-0682-4F4C-99B4-A9DF34157614}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{722C3EE0-9A52-4351-B438-6F85A5D3348B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B5CD3B01-3EFF-4AF1-8196-6DDA28ABA329}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BB0D61EC-589B-4251-9098-F371786D5BB0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{846D03DC-3D49-4CF1-8B6F-BD362935C636}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{73DA1FA3-8DE4-4B1D-BB1A-F0BCBAF72655}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{29A382C9-9B76-4BE3-B115-92925C931768}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1B4F90DD-2C78-4FB5-8780-899897211B46}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{207E07DF-38FE-4E0E-A676-DBDBC23315B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{34DA8292-0DCC-48E7-BFD2-232EA33322F0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{76546AFB-D6FE-4033-9A4A-6AE616E15823}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4861,7 +4861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A34FEF6-F52E-4A4E-82D5-B5D7CCC40186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4A6F29-4891-4124-901B-C5CA99F434E4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6030,18 +6030,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DBFB1E25-0C69-4AE1-88F1-E883C2511A70}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8D568D3F-84B5-4F8A-A203-6293B14366C5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B9F21E85-8D80-4172-8F20-EA2AE3A953A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D309C57E-0BD2-4B9D-98E9-53FC1B8B741F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C298946E-01C9-4796-8B07-1E63A7A28A0C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FD8E39F0-5721-4AB0-8AF5-4A8EC2E40CCE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{003F8E86-59AB-4E4E-A437-F5A16144BD87}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A143F745-DA85-4BBC-A242-A07C2EB75203}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C5728EB2-BAE7-4260-B5A4-56C49A49AAB2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{85DE15C7-17FD-4F1A-98CD-8874EB5F1BD8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{49A7E1E5-46F8-4D76-9163-78CAA4B09F38}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FA3B30A5-6A37-465F-89D1-CFAA73839F47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8EB0DFB3-0EC9-4FDF-AD81-20888C8FB76D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A0D1EC2-98CE-4302-8A1A-ADACD1923F12}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A52010E2-0CA9-48A1-AD66-AB26A8965969}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BAEC6C6E-77B5-4179-A57D-979524A7BE45}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4FEF7C87-9B2E-47CF-8264-73B51F1EDCE3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F7123ADF-BC76-4CEC-A333-23097F2A0049}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C885EDA6-15F3-48D4-880A-595BAB32C444}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{762BC43A-FF90-4992-B342-6D64B5AE0A05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BA0C745B-AE09-482D-BF01-FBD1D98A1800}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0F9FB330-24B5-43EF-AA86-72BFD223E152}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3158C832-A85A-48BB-82E9-D5D12CF32CDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DF1A2D77-1153-45F9-BF29-1A6701A968D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6054,7 +6054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629E00B1-22A2-4330-B624-C4FD65CE4805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F682E12-9FB5-4DE5-85BA-28DF879C9808}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7253,18 +7253,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{697AA83F-06BC-439B-BAD1-7C569B4C8670}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AA34817F-4D89-4A0D-B2E6-C07F46519A09}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1E303C20-D570-4346-A6DE-EDB7506A7147}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3ADEC7B3-D94B-4F5C-99C7-C97C781DB827}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{501E956D-845D-4E98-A82D-EFC4A68452D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F3F55786-7864-4A57-89AA-0E683841D959}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AFCB551F-E3AB-4F6F-8129-89420F82509B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7AA4519F-CA2E-4A72-851C-185969922EA9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F0395D0A-C490-4103-B00D-3CDC5059FB20}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DC258BD2-569A-407C-AF6F-14D5C031DB8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9A7C769B-965E-438C-B444-8161E08BC296}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{18043F59-49D5-4830-B9AD-6C5F04B416C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{91CC4E5A-8629-4FCA-BF26-700FC9C9B658}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5FC5D46B-E34D-48FF-9DB6-5F4B7CF078BC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8CD1E539-6BDF-476D-8FA5-FE264072E220}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{54B1A056-C7D0-4CA5-99C3-0F5E0AE1F353}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E6185FD0-3CC1-4D44-AE05-CE323E569F4A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B37C69C2-48EA-4372-ACFF-6CC9FC3DCB14}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A71FB390-B73C-4DB5-AB1A-EADA4A6AE726}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{185ACB5E-5779-4031-B4F5-3520CB55555A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{49D297A1-DA31-4FB6-80D9-965B0CBD30C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FDEBF963-1E7F-42F2-B199-A54951A4A8A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F2F28CE5-DC91-463E-87A7-0872FB76363F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C6E11DFB-B353-4DE5-995F-4DC8538E4DBE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7277,7 +7277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5BE5B9-4C6E-4F6F-8E9C-587046656506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28238260-82F3-496B-9129-DD2B87A0229A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8470,18 +8470,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C04ADC6A-CE0B-4FEF-AFA1-89F3435EBF53}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D7E7DEEF-0B05-41BE-A992-CC9FD35A27E3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FE5B4118-375D-4EA8-885E-53C5D5474124}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{417F7D4E-F07B-4C69-840B-86D35CEC209F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FEE4EACE-5176-4DBB-A629-D9200A7A7D4B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F875E814-2EA6-4282-A235-1D12F0D078A3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BDC4A1AC-8B65-42DE-B584-CCF6F789EA29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CC7989C9-35C9-44D5-8CE8-AEED2D775463}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AD60CE50-CDE9-4C91-BE52-B5FAE7DE3246}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{31A99CBA-FE21-4DD0-B1C7-37DCAE5BE869}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{07C8E4E8-FA47-4AE2-B0BB-A93E5A62534D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1C4FC165-5BE2-4023-9ED6-7A54F812F6CF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{46ED4BF9-C038-47EC-B1C4-554111344BC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4D49A12E-AB90-4B10-AA2B-BF3888E14C07}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0CF54EFB-2DA0-4B65-845B-665571485F18}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{989E5F66-54B2-44AB-919C-15860DC11F81}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DE3344B9-9B83-4A41-B33B-CF09083F65BA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1BAD475E-4BC4-4CC4-8C62-5FA545983A15}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C69C6E75-B678-498E-879D-197733217AFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9E5A657D-D546-4B49-B33A-DD28BC8FA5DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{05BA5DD2-D813-4CF7-9BCF-D6726738F450}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{66DDB3A2-82DC-49A7-89A6-5E9411D88894}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DCDBD286-0AE3-4CC0-AE76-AAA0F9C99637}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A9C5F16B-19B4-462D-8A4A-7A99AC4B5649}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8494,7 +8494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CB19E8-F0BB-4FA2-BBFA-3D170CD25542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30662350-0DE5-4CCD-9C9C-400386A459F5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9683,18 +9683,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{49BEBB33-FC8F-43E3-B653-7F536B535995}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D4790B34-7362-4774-92AB-88E1343D9BB8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BC983DA0-6597-4F2E-8C03-867B67EB234C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8DC39659-405E-4555-AED7-3A40FA52588F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B513CF42-CE58-4653-B635-F6B7D966AB41}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BD497120-4CDA-4B95-BD1B-7A66BB70EADB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{53D13566-CC84-4557-96D1-82D0E68888D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{925BEDC3-5AB4-4B77-A3EF-9D87EF7E94E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3F8740DC-782F-4A11-9C7B-C5F88127F76E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{853108C0-0EC7-46F0-A2A9-0C0F7E82BCEA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C47F5FBD-B863-4743-B76E-5F2F0BDFFABD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FAD786F4-B83D-4FCB-9BA6-2812DA8319FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FB1ED396-173D-4BA5-9D3A-0436A783A379}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{29E7033C-CF24-4371-A4CF-A05A8C318F41}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8A9D04D7-A210-41A9-8B21-3F233B1C11B7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F7541E63-5FCC-429A-B090-150D14CC2B08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DFCD2FC7-0750-4AC4-B9CF-F53E37C2E367}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F9EA0C15-8E4E-4ACF-90E7-6213D4FC6753}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{20DC2A26-92FE-4E44-9871-3A9574E62EB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{17CD17EA-6E53-4B3C-8AE3-D01D80C19254}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BF014ADF-FF4D-4594-8C48-53E2F16468A2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EE306535-DB3B-43B5-893E-151B55858D55}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F03DD17E-C49C-41C6-B798-059748B96232}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{883806D3-B922-46C7-8529-F5A21E476EAB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9707,7 +9707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DDC39E-22B3-4E11-B211-1A4192E6117A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D051AF0-0C45-4F34-96D5-5ABF31EFE28E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10894,18 +10894,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0A1AFFFB-A620-4A1C-A54A-9290F5ABD5AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2AF6BC08-8A7B-4781-9BBD-74D7985146DE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A5911F22-64DA-443B-8AE5-748B1F8C81DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{58CD71CE-90CD-41A4-8363-8017B1C4988C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9F877429-9A22-4037-8079-69E7DC54ACBB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B599485F-1B74-459F-A361-524A7F507946}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5584C5A4-D250-4DFC-B6AA-AFFBE2BE79B6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E42510CA-1FEB-49FB-ABFD-1615A6B6C730}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{423B7C4F-B66C-4D1C-BE76-E2C86CBB1C03}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1699832C-54F7-4497-864F-37AB68DF5A14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2D17E621-E237-4E77-AAD9-A3F99F3712E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F4B608F5-698D-46B6-A9C8-213DBA226887}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FD6C8149-8C0A-419A-A1D9-F31AF39A2CAB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E5BE86B9-8E4E-4E1D-8656-F732FD80EDA3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EE78AA28-72C5-433E-84C2-4ADFFABD855D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{954A70D6-1522-4565-9743-0CE14A94E88A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AE3A55B3-9DC3-456A-989C-6DB1BBDB15E0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9A1B9DA1-1C2D-4CA7-B620-4346CD5119FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A1E03E4C-DF40-47E3-B82D-995C39A8E42C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AEE9DAAB-20E6-4C30-AAF0-61B8B9AB797E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EF01FFD9-23A8-4980-8736-6129F9325148}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D46F0D34-055F-46DE-900E-C054A325FDB9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DC4BC3D8-335D-4831-B28D-26C7A351091B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B8708395-A6E7-4F70-88E1-7508A9EC02E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10918,7 +10918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360115AC-3368-4402-B9B0-3469DB0D575B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898D5200-FE20-402B-82C3-416A4AB92CAA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12105,18 +12105,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E427D313-85FD-48AC-B8BE-221FC9601268}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1AB8B093-5715-4D57-A526-73AE1407AFEE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2D027AD3-FC6A-4C40-B0E9-1CA38DA9C643}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CD00874F-492F-4563-8204-62C615BF85A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{03AE5EB9-8318-4C53-B30A-1F0A2CB63F0F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CB37443A-63F5-41F1-BE2D-51E572A33304}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5E9CD72C-6F60-4886-986A-37E35E399BC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A21FB873-8922-4970-A6F3-CC4ACB8AEDDB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{016FE9D6-2408-403C-ABA1-D9F1B84A713D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F4128AD2-8284-4FD6-8EA0-49EF367EA4FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C084760-5A9E-4856-8247-B252E55FBD62}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE7C8C36-5401-4B1A-B996-3A205D26A830}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A5634CAE-717A-437A-944E-0A4F90FEA800}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AD44FA59-0DDE-4AFA-BB54-A468FE2538F6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{78665747-3BB3-439E-ACC9-911BDC1FE1BA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FE6D1BFD-82A9-49A9-A532-F296C2C749B8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FBA51735-5358-4E8E-968B-67C6B111CC93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3A9E0CDA-B148-4157-A7A9-B48DCF1CFCC2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BC242CAD-E692-4483-86B2-A836D902656A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1EAB82E8-ED8F-4303-9B99-6C6F6E2262EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2CB9E8A3-D370-4C72-9C47-E6EF2A4ABF51}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{415629BC-351D-445C-8D78-41A46B26561E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F91DF101-DB3A-4CA0-A8C2-67827ECBC047}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{489C7E31-9750-4759-B6CB-FBBDE695AAE0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12129,7 +12129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66106B2-EA2A-4C1C-AED7-DCB6F6A7C326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53944C77-2F76-44CE-9FE0-46315AA342C4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13312,18 +13312,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8A6A4897-40EA-4682-A6A8-796D1D588607}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4B57A05F-3A49-4AAD-9D69-24883F8D383E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5A1F162E-2248-42DE-B6E2-495E2876495C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{87BE22B1-1254-467A-96C5-69FE1094A02D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{63168291-690D-47FB-891D-4F0594B07D10}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1996FF9A-D8CE-4577-A3D2-CE4596259C14}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6609FD7F-D7DB-4541-BCAA-7D704A96DA9B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0D30DF1E-DFC3-44E5-9797-22238A363194}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C4E3EC60-BE8C-4B6E-90F8-5A2BCE8254C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{89BD2918-439F-4184-8BC4-9439025DF15F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5E8A604A-B03D-444C-9414-A70FC494E9FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{27AD33D4-419E-4430-A94A-651023FD3C2A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BB558BB3-EF6B-4218-99B9-9755CEFD84F4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{297654C3-84D0-43A5-B3D8-D979F1AC8ED2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BCDC11B4-FE47-47A7-92D8-FB25A6678092}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{10D9418B-376E-45C5-A129-B4EA5E29C36B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{281ED68D-0259-48FA-88F2-559824419AFC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5E619773-2420-43FA-93F0-07A5BB5954BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A506F241-DA6D-4E83-ADE1-D262D18B49BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9E74BA0B-252D-4308-BE56-6E9280100483}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{44D3F4B7-A0A4-4E77-B77C-A5BC22989F86}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3BE9F465-5081-4F62-8781-CC2747808B69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D7F70ED4-E777-4B2A-A38A-2F7E34610B34}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EE41C6D0-81F7-49C6-91DC-42200A063BEB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13336,7 +13336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E71C33-588D-4A33-BFFD-2AD2C40569AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D36E97A-0737-4C56-BE5B-9B39CC772DC5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14519,18 +14519,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{18336E4A-A780-4743-BEDF-F79C2403FDDD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BE0280D7-DDC1-4D14-B04C-AAEF276967F4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2CD3DAFA-3AB6-4FA8-B8A1-C9D8546EB963}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C41BA826-0CA2-43B2-8EF4-8CFF3091ACD1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8818F0CC-7FDE-4D64-A7F5-951B78B9DEF0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D21F8CBB-67E4-4E28-864E-28EC90FD7BA3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{388FC539-CC61-4204-8C1B-F22552635B7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5BA84FEB-CB8C-4183-979E-E86111EF092C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{685038D1-822D-401B-AA22-0FA9371536C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BB238099-0DA3-4F27-82D3-09CFD40D74DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C5C23331-A9C7-4480-B05C-6886961834CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{580FD20B-9376-443D-A8C4-D658CCA877B7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F5E62452-7710-45A2-96E0-BF51EB05BB50}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EFB57816-A55F-471F-A1BF-2BD705CB039B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ABBF5D70-01C0-47D4-AEED-68A5FF5A08AC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{97DA45EA-6955-4FA4-A62B-D8C47DF0A7E1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0D115761-7DA1-48A1-B2B7-3D3E53CEB352}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BC3F3AC8-D9A2-49E6-9139-1DFFF4AD18E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F4CAB9C8-DA25-449E-A7F2-0ED9EFE48B94}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0535F281-F946-4C05-BC5B-BDD2D42E1F33}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{837F95D7-3171-49A9-B09E-98654DCF6BD7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B7390F3B-D339-47F1-98A9-D309AFE79002}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CAF04F29-BEB2-447C-B0C8-F85A703E4B74}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A7C971D9-F8B4-49A4-8207-99DFF23D9390}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14543,7 +14543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D45862-0E09-41ED-BC2F-BDF41DACF840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255F4863-B3CB-48EF-9B13-B0D2946F7630}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15726,18 +15726,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2F3671C2-3821-4791-A907-B606DDBA443D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{94CD6B0C-98B8-42AA-8AC6-4001F6165B19}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B7250AF8-7A58-4BED-A608-0148D62A9F46}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4005BB51-ABE3-4849-B9DF-CB95F01EAF7D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AF9D1842-84B1-4A95-A7A8-169598926ABF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C8DAAA6B-927E-4C10-ACCD-BB8F368E3863}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{09EB0FFA-F455-453C-81E9-EAF42BAD59C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{63AB6E92-DF6D-4CBD-808C-AB0106D25AA4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D2F33A71-7538-4122-9FB0-F1E2B1E01FA9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A17CF3E8-6BB8-4732-8867-29260EDEDF95}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0FDF67BD-0EE2-45AA-B06D-A5126CF7093F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5EC20283-2436-43F9-B730-D70773B4288C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6E1F683D-F323-45F5-A1AC-88EBCBC29965}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{67D37964-002A-49E4-9A90-AA1DEF0BFE3C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{458A8D6D-A8C3-45AF-94EE-44EDE0EA02F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{585E5125-383F-41C9-B9C0-6A76D61076B5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DA51540D-01FB-4E64-AFC6-1A41D6459637}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{58C95FA6-2E2A-406C-9307-E49951A221C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A6D0B989-E29D-47BD-A48E-8F4D8EACDF42}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F57FC36B-A240-4A0E-9795-6C952577F668}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{29B6367E-EC9E-46C0-B6A3-AB08D3D53E6D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8F0DED20-9C30-4917-A26B-E7246B6DEA80}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E6E7480C-16BA-4D14-8D7D-4110520226A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{22E34BCD-403A-452D-B69F-CE4BCE59F445}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
